--- a/Addons/HD Enabeler/HD Enabeler Pick and place.xlsx
+++ b/Addons/HD Enabeler/HD Enabeler Pick and place.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="118">
   <si>
     <t>Designator</t>
   </si>
@@ -166,13 +166,13 @@
     <t>L0805</t>
   </si>
   <si>
-    <t>64.008mm</t>
-  </si>
-  <si>
-    <t>-28.575mm</t>
-  </si>
-  <si>
-    <t>64.974mm</t>
+    <t>61.849mm</t>
+  </si>
+  <si>
+    <t>-21.717mm</t>
+  </si>
+  <si>
+    <t>-20.751mm</t>
   </si>
   <si>
     <t>10uH</t>
@@ -301,16 +301,16 @@
     <t>SOT-23-5_L3.0-W1.7-P0.95-LS2.8-TL</t>
   </si>
   <si>
-    <t>59.69mm</t>
-  </si>
-  <si>
-    <t>-22.479mm</t>
-  </si>
-  <si>
-    <t>60.961mm</t>
-  </si>
-  <si>
-    <t>-23.429mm</t>
+    <t>58.42mm</t>
+  </si>
+  <si>
+    <t>-21.336mm</t>
+  </si>
+  <si>
+    <t>59.691mm</t>
+  </si>
+  <si>
+    <t>-22.286mm</t>
   </si>
   <si>
     <t>U2</t>
@@ -350,6 +350,21 @@
   </si>
   <si>
     <t>68.36mm</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>64.643mm</t>
+  </si>
+  <si>
+    <t>-28.321mm</t>
+  </si>
+  <si>
+    <t>62.143mm</t>
+  </si>
+  <si>
+    <t>-26.531mm</t>
   </si>
 </sst>
 </file>
@@ -726,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -1110,10 +1125,10 @@
         <v>52</v>
       </c>
       <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
         <v>53</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1122,7 +1137,7 @@
         <v>20</v>
       </c>
       <c r="L9">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M9" t="s">
         <v>21</v>
@@ -1569,6 +1584,50 @@
       </c>
       <c r="N19" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Addons/HD Enabeler/HD Enabeler Pick and place.xlsx
+++ b/Addons/HD Enabeler/HD Enabeler Pick and place.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC86B44C-DA3D-4572-93D2-2F69E6E4C2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2205" yWindow="2310" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_PCB1_2024-12-03" state="visible" r:id="rId4"/>
+    <sheet name="PickAndPlace_PCB1_2024-12-03" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="111">
   <si>
     <t>Designator</t>
   </si>
@@ -155,27 +159,6 @@
   </si>
   <si>
     <t>-23.709mm</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>SDFL2012S100KTF</t>
-  </si>
-  <si>
-    <t>L0805</t>
-  </si>
-  <si>
-    <t>61.849mm</t>
-  </si>
-  <si>
-    <t>-21.717mm</t>
-  </si>
-  <si>
-    <t>-20.751mm</t>
-  </si>
-  <si>
-    <t>10uH</t>
   </si>
   <si>
     <t>OUT</t>
@@ -370,14 +353,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -740,12 +723,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="14" width="20" customWidth="1"/>
   </cols>
@@ -1107,31 +1092,31 @@
         <v>48</v>
       </c>
       <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
         <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
@@ -1143,18 +1128,18 @@
         <v>21</v>
       </c>
       <c r="N9" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
         <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>56</v>
@@ -1172,7 +1157,7 @@
         <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J10">
         <v>8</v>
@@ -1181,13 +1166,13 @@
         <v>20</v>
       </c>
       <c r="L10">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="N10" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1219,19 +1204,19 @@
         <v>64</v>
       </c>
       <c r="J11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K11" t="s">
         <v>20</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" t="s">
         <v>66</v>
-      </c>
-      <c r="N11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1283,28 +1268,28 @@
         <v>74</v>
       </c>
       <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
         <v>75</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>76</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
         <v>77</v>
       </c>
-      <c r="E13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s">
-        <v>79</v>
-      </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1313,42 +1298,42 @@
         <v>20</v>
       </c>
       <c r="L13">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M13" t="s">
         <v>21</v>
       </c>
       <c r="N13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s">
         <v>81</v>
-      </c>
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" t="s">
-        <v>83</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1357,42 +1342,42 @@
         <v>20</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M14" t="s">
         <v>21</v>
       </c>
       <c r="N14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" t="s">
         <v>85</v>
-      </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" t="s">
-        <v>88</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1407,51 +1392,51 @@
         <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
         <v>89</v>
       </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>90</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s">
         <v>91</v>
-      </c>
-      <c r="F16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" t="s">
-        <v>90</v>
       </c>
       <c r="I16" t="s">
         <v>92</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K16" t="s">
         <v>20</v>
       </c>
       <c r="L16">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s">
         <v>21</v>
       </c>
       <c r="N16" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1483,95 +1468,95 @@
         <v>99</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s">
         <v>20</v>
       </c>
       <c r="L17">
-        <v>180</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="M17" t="s">
         <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
         <v>104</v>
       </c>
-      <c r="F18" t="s">
-        <v>103</v>
-      </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
         <v>105</v>
       </c>
       <c r="I18" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="J18">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="K18" t="s">
         <v>20</v>
       </c>
       <c r="L18">
-        <v>0.089</v>
+        <v>0</v>
       </c>
       <c r="M18" t="s">
         <v>21</v>
       </c>
       <c r="N18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
         <v>108</v>
       </c>
-      <c r="B19" t="s">
+      <c r="F19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" t="s">
         <v>109</v>
       </c>
-      <c r="C19" t="s">
+      <c r="I19" t="s">
         <v>110</v>
       </c>
-      <c r="D19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" t="s">
-        <v>71</v>
-      </c>
       <c r="J19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K19" t="s">
         <v>20</v>
@@ -1583,56 +1568,12 @@
         <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" t="s">
-        <v>117</v>
-      </c>
-      <c r="J20">
-        <v>8</v>
-      </c>
-      <c r="K20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>